--- a/src/test/java/com/io/TestData1.xlsx
+++ b/src/test/java/com/io/TestData1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="540" windowWidth="21732" windowHeight="8892"/>
+    <workbookView xWindow="636" yWindow="540" windowWidth="21732" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AppData" sheetId="1" r:id="rId1"/>
     <sheet name="AppData2" sheetId="2" r:id="rId2"/>
     <sheet name="TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="AppLoginInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Testcase</t>
   </si>
@@ -174,13 +175,39 @@
   <si>
     <t>training#1122</t>
   </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>LoggedInUserName</t>
+  </si>
+  <si>
+    <t>johnnitesh2@gmail.com</t>
+  </si>
+  <si>
+    <t>Testing@123</t>
+  </si>
+  <si>
+    <t>UserEmail</t>
+  </si>
+  <si>
+    <t>nitesh</t>
+  </si>
+  <si>
+    <t>prathyusharathod98@gmail.com</t>
+  </si>
+  <si>
+    <t>kethavath@123</t>
+  </si>
+  <si>
+    <t>prathyusha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -241,6 +268,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -362,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -386,6 +428,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,20 +663,20 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.5546875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="45.44140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="39.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.5546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -840,9 +885,9 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -851,9 +896,9 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -862,9 +907,9 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
@@ -873,9 +918,9 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
       <c r="F13" s="1"/>
@@ -884,9 +929,9 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -895,9 +940,9 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -906,9 +951,9 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -917,9 +962,9 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -928,9 +973,9 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
@@ -939,9 +984,9 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -950,9 +995,9 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -961,9 +1006,9 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
       <c r="F21" s="1"/>
@@ -972,9 +1017,9 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
@@ -983,9 +1028,9 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -994,9 +1039,9 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
@@ -1005,9 +1050,9 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
@@ -1212,4 +1257,58 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/java/com/io/TestData1.xlsx
+++ b/src/test/java/com/io/TestData1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>Testcase</t>
   </si>
@@ -192,15 +192,6 @@
   </si>
   <si>
     <t>nitesh</t>
-  </si>
-  <si>
-    <t>prathyusharathod98@gmail.com</t>
-  </si>
-  <si>
-    <t>kethavath@123</t>
-  </si>
-  <si>
-    <t>prathyusha</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1298,13 +1289,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
